--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_11.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_11.xlsx
@@ -1250,7 +1250,7 @@
         <v>985666.54999992996</v>
       </c>
       <c r="D14" s="1">
-        <v>45752811.060000002</v>
+        <v>-45752811.060000002</v>
       </c>
       <c r="E14" s="1">
         <v>537985.22000000253</v>
@@ -1322,7 +1322,7 @@
         <v>-51786608.799999997</v>
       </c>
       <c r="D16" s="1">
-        <v>50601311.960000001</v>
+        <v>-50601311.960000001</v>
       </c>
       <c r="E16" s="1">
         <v>-60473972.810000002</v>
@@ -1395,7 +1395,8 @@
         <v>1515501799.8700008</v>
       </c>
       <c r="D18" s="1">
-        <v>1447283759</v>
+        <f>SUM(D12:D17)</f>
+        <v>1447283759.0400002</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(E12:E17)</f>
@@ -1436,7 +1437,7 @@
         <v>-392700000.00000024</v>
       </c>
       <c r="D19" s="1">
-        <v>383100000</v>
+        <v>-383100000</v>
       </c>
       <c r="E19" s="1">
         <v>-384700000.00000012</v>
@@ -1509,7 +1510,8 @@
         <v>1124090364.1500006</v>
       </c>
       <c r="D21" s="33">
-        <v>1096925175</v>
+        <f>SUM(D18:D20)</f>
+        <v>1096925174.2900002</v>
       </c>
       <c r="E21" s="33">
         <f>SUM(E18:E20)</f>
@@ -1550,7 +1552,7 @@
         <v>-33376095</v>
       </c>
       <c r="D22" s="32">
-        <v>32201025</v>
+        <v>-322025175</v>
       </c>
       <c r="E22" s="32">
         <v>-20015625</v>
@@ -1588,7 +1590,7 @@
       </c>
       <c r="D23" s="33">
         <f>SUM(D21:D22)</f>
-        <v>1129126200</v>
+        <v>774899999.2900002</v>
       </c>
       <c r="E23" s="33">
         <f>SUM(E21:E22)</f>
@@ -1636,7 +1638,7 @@
       </c>
       <c r="D25" s="5">
         <f>D23/D26</f>
-        <v>1.1179557980772141</v>
+        <v>0.76723394350098761</v>
       </c>
       <c r="E25" s="5">
         <f>E23/E26</f>
@@ -1727,11 +1729,11 @@
       <c r="C28" s="6"/>
       <c r="D28" s="16">
         <f>(D25-C25)/C25</f>
-        <v>2.8428411946701312E-2</v>
+        <v>-0.29420717038776101</v>
       </c>
       <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
-        <v>-8.4605296483076339E-2</v>
+        <v>0.33384455288323656</v>
       </c>
       <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>1.0327346743681818</v>
+        <v>0.9625903034529365</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
